--- a/data/prescribed_med.xlsx
+++ b/data/prescribed_med.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306AC14E-FFB8-4014-8375-DD7F075BADF0}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="3360" windowWidth="27075" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
